--- a/medicine/Mort/Cimetière_arménien_de_Moscou/Cimetière_arménien_de_Moscou.xlsx
+++ b/medicine/Mort/Cimetière_arménien_de_Moscou/Cimetière_arménien_de_Moscou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_de_Moscou</t>
+          <t>Cimetière_arménien_de_Moscou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière arménien de Moscou se trouve dans la capitale russe dans le quartier de Presnia du centre historique, sur une surface de deux hectares. Il se situe à proximité du cimetière Vagankovo.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_de_Moscou</t>
+          <t>Cimetière_arménien_de_Moscou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été fondé au tournant du XVIIIe et du XIXe siècle. Il était destiné d'abord à la population nécessiteuse de la ville, puis a été donné en 1815 à l'Église apostolique arménienne qui y a fait construire une chapelle, toujours ouverte au culte. Minas Lazarev, bienfaiteur de la communauté arménienne de Moscou, est enterré dans la crypte.
 Le cimetière a été entouré de murailles vers 1850 et on a construit une salle de réunion pour les familles des défunts à la fin du XIXe siècle qui est inscrite au patrimoine architectural de la ville, comme d'autres monuments du cimetière, parmi lesquels l'obélisque sur la tombe du comte Loris-Melikov.
